--- a/experiment/quadratic/ex9_2_4/compare/M-Estacionario/ex9_2_4_M-Estacionario.xlsx
+++ b/experiment/quadratic/ex9_2_4/compare/M-Estacionario/ex9_2_4_M-Estacionario.xlsx
@@ -485,13 +485,13 @@
         <v>43860.68797012173</v>
       </c>
       <c r="E2">
-        <v>0.00430155</v>
+        <v>0.005046751</v>
       </c>
       <c r="F2">
-        <v>0.01496673</v>
+        <v>0.01491391</v>
       </c>
       <c r="G2">
-        <v>0.005797550592334495</v>
+        <v>0.006881493973829201</v>
       </c>
       <c r="H2">
         <v>2372</v>
@@ -523,13 +523,13 @@
         <v>43860.68640300727</v>
       </c>
       <c r="E3">
-        <v>0.00285345</v>
+        <v>0.003126143</v>
       </c>
       <c r="F3">
-        <v>0.00942084</v>
+        <v>0.017965249</v>
       </c>
       <c r="G3">
-        <v>0.0038306136377590175</v>
+        <v>0.004288314234536082</v>
       </c>
       <c r="H3">
         <v>3976</v>
